--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3855253.979675325</v>
+        <v>3851241.369661333</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>286.5223858700513</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54.34809064563557</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.73025986735002</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>75.4123130728491</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>352.6059908745362</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7056494455312</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>111.9183583614283</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>238.7368475094335</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>170.7412391063468</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>80.52402110376468</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
-        <v>91.86448650020581</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>140.7722084536801</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.458642397731778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>138.7157037776614</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>68.41584059195273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695612</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.600826611594925</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>57.82449082152434</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>74.20064764874429</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>21.23835815356766</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.2585798692288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>185.6105502774377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>111.5512144998715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>120.4424239494347</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1517.887535471215</v>
+        <v>2102.48089954095</v>
       </c>
       <c r="C2" t="n">
-        <v>1148.925018530803</v>
+        <v>1733.518382600538</v>
       </c>
       <c r="D2" t="n">
-        <v>790.6593199240526</v>
+        <v>1375.252683993788</v>
       </c>
       <c r="E2" t="n">
-        <v>404.8710673258084</v>
+        <v>989.4644313955434</v>
       </c>
       <c r="F2" t="n">
-        <v>397.9255665766049</v>
+        <v>578.4785266059359</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>163.4060764509324</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535336</v>
+        <v>2489.080739605072</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4406,10 +4406,10 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.9042569062802</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>457.9680739783734</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.676548429999</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X4" t="n">
-        <v>873.6869975319821</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.894418388452</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875904</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.069587875904</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1354.075868958388</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915838</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940026</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>885.6097049312904</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>885.6097049312904</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1686.146217270883</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.25816976153</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.25816976153</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1067.25816976153</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.898819086399</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>1990.637991126332</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1600.49865915052</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228012</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.9544330261738</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1233.802197934922</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>944.385027897961</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>716.3954769999436</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>495.6028978564135</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5050,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2237.723229879451</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.121764902392</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.046538246589</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.362050040702</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1184.944880003742</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5545,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2239.800507329975</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2020.199042352916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1731.123815697113</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1476.439327491226</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.022157454266</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.022157454266</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.2295783107356</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,25 +5831,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6208,49 +6208,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>415.5933575433587</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>267.6802639609656</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3232.00962274135</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>4151.857387650098</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3862.440217613137</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3634.45066671512</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3413.65808757159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7668121881176</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>168.7668121881176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.8178837532263</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.248478625013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.258927726996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.466348583466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>809.0422355233313</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>640.1060525954244</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.483279497101</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.6907003535711</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274257</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>40.2540775479645</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.126010954363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>42.31058222398323</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>218.1071577446383</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>10.85445046951701</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>138.8202214113363</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>109.4223302771035</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>7.065188669821239</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>265.2846401830233</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>10.32607348286601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>40.09910511159941</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>105.8542358274168</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>131.6952193743933</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>635297.7181999519</v>
+        <v>635297.7181999518</v>
       </c>
     </row>
     <row r="12">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176758</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977563</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
         <v>786967.934697756</v>
@@ -26377,7 +26377,7 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.079643929909096e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>5.989152763002745e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813248</v>
@@ -26426,10 +26426,10 @@
         <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26441,7 +26441,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26453,7 +26453,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725907.0837294429</v>
+        <v>-725907.0837294427</v>
       </c>
       <c r="C6" t="n">
-        <v>602837.6619981501</v>
+        <v>602837.6619981503</v>
       </c>
       <c r="D6" t="n">
-        <v>602837.6619981501</v>
+        <v>602837.6619981497</v>
       </c>
       <c r="E6" t="n">
-        <v>349875.854779712</v>
+        <v>349528.4755253554</v>
       </c>
       <c r="F6" t="n">
-        <v>675288.3165870676</v>
+        <v>674940.9373327103</v>
       </c>
       <c r="G6" t="n">
-        <v>675288.3165870676</v>
+        <v>674940.9373327109</v>
       </c>
       <c r="H6" t="n">
-        <v>675288.3165870677</v>
+        <v>674940.9373327109</v>
       </c>
       <c r="I6" t="n">
-        <v>675288.3165870676</v>
+        <v>674940.9373327106</v>
       </c>
       <c r="J6" t="n">
-        <v>457757.11418979</v>
+        <v>457409.7349354328</v>
       </c>
       <c r="K6" t="n">
-        <v>675288.3165870677</v>
+        <v>674940.9373327105</v>
       </c>
       <c r="L6" t="n">
-        <v>675288.316587068</v>
+        <v>674940.9373327105</v>
       </c>
       <c r="M6" t="n">
-        <v>590233.2886515557</v>
+        <v>589885.9093971992</v>
       </c>
       <c r="N6" t="n">
-        <v>675288.3165870674</v>
+        <v>674940.9373327107</v>
       </c>
       <c r="O6" t="n">
-        <v>675288.3165870677</v>
+        <v>674940.9373327107</v>
       </c>
       <c r="P6" t="n">
-        <v>675288.3165870676</v>
+        <v>674940.9373327106</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>124.3993397834021</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>240.2596737416849</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.1017203145873</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>210.7995251327638</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>2.07705074614671</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>261.2247206267306</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>36.69711465678405</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.40079581439454</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>236.1348066353646</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>289.2070795747044</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
-        <v>160.2731568236222</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29289,10 +29289,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-8.384404281969182e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.028473857802275e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31837,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32551,10 +32551,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>218.9428233593773</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>489.8124929257571</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>161.7871425275306</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>173.3851399586646</v>
+        <v>281.0363767960748</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>81.10138438501833</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>347.2162484813126</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>23.94570355317166</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>31.25110603664623</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3851241.369661333</v>
+        <v>3853001.899964117</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>54.34809064563557</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>218.1690567639041</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>75.41231307284862</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>75.4123130728491</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>120.7056494455312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>33.38304376059013</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>238.7368475094335</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>170.7412391063468</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576158</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.52079624060465</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695612</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>102.5859514748438</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>68.64373283592688</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,16 +4191,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>120.4424239494347</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2102.48089954095</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1733.518382600538</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1375.252683993788</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>989.4644313955434</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>578.4785266059359</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>163.4060764509324</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605072</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y2" t="n">
-        <v>2489.080739605072</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>1021.570547268603</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>852.6343643406964</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>702.5177249283606</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>554.6046313459675</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>407.7146838480571</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>240.0118472227761</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.837537633435</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.837537633435</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.837537633435</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565138</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1712.341567565138</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="D5" t="n">
         <v>1354.075868958388</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>968.2876163601441</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>557.3017115705366</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>142.229261415533</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4612,7 +4612,7 @@
         <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4713,16 +4713,16 @@
         <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,10 +4761,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1686.146217270883</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1396.729047233923</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
         <v>1396.729047233923</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>654.0504646744059</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
         <v>66.51211643218343</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228012</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5047,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5545,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,64 +5977,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,16 +7074,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,43 +7095,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
         <v>1202.091371290588</v>
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1566.726839764368</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1277.309669727408</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.85445046951701</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>77.24602870709346</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0033420516641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>77.79022981064229</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>131.6952193743933</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176758</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977562</v>
       </c>
       <c r="N2" t="n">
         <v>786967.934697756</v>
@@ -26355,7 +26355,7 @@
         <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.079643929909096e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725907.0837294427</v>
+        <v>-725907.0837294429</v>
       </c>
       <c r="C6" t="n">
-        <v>602837.6619981503</v>
+        <v>602837.6619981501</v>
       </c>
       <c r="D6" t="n">
-        <v>602837.6619981497</v>
+        <v>602837.6619981498</v>
       </c>
       <c r="E6" t="n">
-        <v>349528.4755253554</v>
+        <v>349841.1168542764</v>
       </c>
       <c r="F6" t="n">
-        <v>674940.9373327103</v>
+        <v>675253.5786616318</v>
       </c>
       <c r="G6" t="n">
-        <v>674940.9373327109</v>
+        <v>675253.5786616317</v>
       </c>
       <c r="H6" t="n">
-        <v>674940.9373327109</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="I6" t="n">
-        <v>674940.9373327106</v>
+        <v>675253.5786616318</v>
       </c>
       <c r="J6" t="n">
-        <v>457409.7349354328</v>
+        <v>457722.3762643543</v>
       </c>
       <c r="K6" t="n">
-        <v>674940.9373327105</v>
+        <v>675253.5786616317</v>
       </c>
       <c r="L6" t="n">
-        <v>674940.9373327105</v>
+        <v>675253.5786616316</v>
       </c>
       <c r="M6" t="n">
-        <v>589885.9093971992</v>
+        <v>590198.5507261202</v>
       </c>
       <c r="N6" t="n">
-        <v>674940.9373327107</v>
+        <v>675253.578661632</v>
       </c>
       <c r="O6" t="n">
-        <v>674940.9373327107</v>
+        <v>675253.578661632</v>
       </c>
       <c r="P6" t="n">
-        <v>674940.9373327106</v>
+        <v>675253.5786616317</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>240.2596737416849</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>168.0688818921495</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>69.34270184147216</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>210.7995251327638</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>261.2247206267306</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>261.2247206267303</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.40079581439454</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1348066353646</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593843</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0363767960748</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795101</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9023428740565</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
